--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/WardImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/WardImportTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\efms\src\WebAPI\eFMS.API.SystemWeb\CatalogueManagement\eFMS.API.Catalogue\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.lth009\Documents\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Catalogue\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>English Name</t>
   </si>
@@ -32,25 +32,46 @@
     <t>Local Name</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>District</t>
+    <t>Ward Code</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Province Code</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>TT71110</t>
+  </si>
+  <si>
+    <t>Thu Thiem</t>
+  </si>
+  <si>
+    <t>Phường Thủ Thiêm</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>VN039010001</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,20 +407,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -408,16 +433,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
